--- a/LF/PreTAS/Senegal/2023/jul 2023/sn_lf_pretas_2_partcipants_202307.xlsx
+++ b/LF/PreTAS/Senegal/2023/jul 2023/sn_lf_pretas_2_partcipants_202307.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\PreTAS\Senegal\2023\jul 2023\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FED6512-413D-4F89-96EE-03B167B2BFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -294,26 +300,20 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Juillet 2022) 2. Pre-TAS FL Formulaire Participants V1</t>
-  </si>
-  <si>
-    <t>sn_lf_pretas_2_partcipants_202207_v1</t>
-  </si>
-  <si>
     <t>French</t>
+  </si>
+  <si>
+    <t>sn_lf_pretas_2_partcipants_202307</t>
+  </si>
+  <si>
+    <t>(Juillet 2023) 2. Pre-TAS FL Formulaire Participants</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -326,7 +326,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -334,180 +334,36 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -526,194 +382,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -723,281 +393,39 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.349986266670736"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.349986266670736"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.349986266670736"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.349986266670736"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.249946592608417"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.249946592608417"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.249946592608417"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.249946592608417"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1066,68 +494,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
-      <color rgb="00CCFFCC"/>
-      <color rgb="00CCECFF"/>
+      <color rgb="FFCCFFCC"/>
+      <color rgb="FFCCECFF"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1385,42 +772,41 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="$A7:$XFD7"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="19.6074074074074" customWidth="1"/>
-    <col min="2" max="2" width="16.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="42.6074074074074" customWidth="1"/>
-    <col min="4" max="4" width="41.2222222222222" customWidth="1"/>
-    <col min="5" max="5" width="47.5037037037037" customWidth="1"/>
-    <col min="6" max="6" width="47.3851851851852" customWidth="1"/>
-    <col min="7" max="7" width="12.6074074074074" customWidth="1"/>
-    <col min="8" max="8" width="16.8888888888889" customWidth="1"/>
-    <col min="9" max="10" width="29.5037037037037" customWidth="1"/>
-    <col min="11" max="11" width="20.3851851851852" customWidth="1"/>
-    <col min="12" max="12" width="39.8888888888889" customWidth="1"/>
-    <col min="13" max="13" width="9.71851851851852" customWidth="1"/>
-    <col min="14" max="14" width="35.3851851851852" customWidth="1"/>
-    <col min="15" max="15" width="13.8888888888889" customWidth="1"/>
-    <col min="16" max="16" width="36.6074074074074" customWidth="1"/>
+    <col min="1" max="1" width="19.625" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="42.625" customWidth="1"/>
+    <col min="4" max="4" width="41.25" customWidth="1"/>
+    <col min="5" max="5" width="47.5" customWidth="1"/>
+    <col min="6" max="6" width="47.375" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
+    <col min="9" max="10" width="29.5" customWidth="1"/>
+    <col min="11" max="11" width="20.375" customWidth="1"/>
+    <col min="12" max="12" width="39.875" customWidth="1"/>
+    <col min="13" max="13" width="9.75" customWidth="1"/>
+    <col min="14" max="14" width="35.375" customWidth="1"/>
+    <col min="15" max="15" width="13.875" customWidth="1"/>
+    <col min="16" max="16" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="18" spans="1:16">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="37.5">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1470,7 +856,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="57" spans="1:16">
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="63">
       <c r="A2" s="13" t="s">
         <v>16</v>
       </c>
@@ -1508,7 +894,7 @@
       <c r="O2" s="16"/>
       <c r="P2" s="13"/>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:16">
+    <row r="3" spans="1:16" s="3" customFormat="1">
       <c r="A3" s="13" t="s">
         <v>26</v>
       </c>
@@ -1536,7 +922,7 @@
       <c r="O3" s="16"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:16">
+    <row r="4" spans="1:16" s="3" customFormat="1">
       <c r="A4" s="13" t="s">
         <v>26</v>
       </c>
@@ -1564,7 +950,7 @@
       <c r="O4" s="14"/>
       <c r="P4" s="16"/>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:16">
+    <row r="5" spans="1:16" s="3" customFormat="1">
       <c r="A5" s="13" t="s">
         <v>26</v>
       </c>
@@ -1592,7 +978,7 @@
       <c r="O5" s="14"/>
       <c r="P5" s="16"/>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:16">
+    <row r="6" spans="1:16" s="3" customFormat="1">
       <c r="A6" s="13" t="s">
         <v>36</v>
       </c>
@@ -1620,7 +1006,7 @@
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:16">
+    <row r="7" spans="1:16" s="3" customFormat="1">
       <c r="A7" s="13" t="s">
         <v>40</v>
       </c>
@@ -1650,7 +1036,7 @@
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
     </row>
-    <row r="8" s="9" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+    <row r="8" spans="1:16" s="9" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="16" t="s">
         <v>16</v>
       </c>
@@ -1686,7 +1072,7 @@
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
     </row>
-    <row r="9" s="3" customFormat="1" ht="28.5" spans="1:16">
+    <row r="9" spans="1:16" s="3" customFormat="1" ht="31.5">
       <c r="A9" s="13" t="s">
         <v>16</v>
       </c>
@@ -1722,7 +1108,7 @@
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
     </row>
-    <row r="10" s="10" customFormat="1" ht="42.75" spans="1:16">
+    <row r="10" spans="1:16" s="10" customFormat="1" ht="47.25">
       <c r="A10" s="18" t="s">
         <v>26</v>
       </c>
@@ -1754,7 +1140,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" ht="28.5" spans="1:16">
+    <row r="11" spans="1:16" s="3" customFormat="1" ht="31.5">
       <c r="A11" s="13" t="s">
         <v>60</v>
       </c>
@@ -1782,7 +1168,7 @@
       <c r="O11" s="13"/>
       <c r="P11" s="13"/>
     </row>
-    <row r="12" s="3" customFormat="1" spans="1:16">
+    <row r="12" spans="1:16" s="3" customFormat="1">
       <c r="A12" s="13" t="s">
         <v>65</v>
       </c>
@@ -1808,7 +1194,7 @@
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
     </row>
-    <row r="13" s="3" customFormat="1" spans="1:16">
+    <row r="13" spans="1:16" s="3" customFormat="1">
       <c r="A13" s="13" t="s">
         <v>69</v>
       </c>
@@ -1855,27 +1241,24 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="16.3851851851852" customWidth="1"/>
-    <col min="2" max="2" width="39.6074074074074" customWidth="1"/>
-    <col min="3" max="3" width="23.7185185185185" customWidth="1"/>
-    <col min="4" max="4" width="20.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="39.625" customWidth="1"/>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="4" max="4" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1893,7 +1276,7 @@
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
         <v>74</v>
       </c>
@@ -1907,7 +1290,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
         <v>74</v>
       </c>
@@ -1921,7 +1304,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
         <v>79</v>
       </c>
@@ -1935,7 +1318,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
         <v>79</v>
       </c>
@@ -1949,7 +1332,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
         <v>84</v>
       </c>
@@ -1963,7 +1346,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>84</v>
       </c>
@@ -1978,27 +1361,25 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A9:C54">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:C54">
     <sortCondition ref="B9:B54"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="46.5037037037037" customWidth="1"/>
-    <col min="2" max="2" width="34.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="46.5" customWidth="1"/>
+    <col min="2" max="2" width="34.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2013,19 +1394,18 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>92</v>
+      <c r="A2" s="28" t="s">
+        <v>94</v>
       </c>
       <c r="B2" t="s">
         <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/LF/PreTAS/Senegal/2023/jul 2023/sn_lf_pretas_2_partcipants_202307.xlsx
+++ b/LF/PreTAS/Senegal/2023/jul 2023/sn_lf_pretas_2_partcipants_202307.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\PreTAS\Senegal\2023\jul 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FED6512-413D-4F89-96EE-03B167B2BFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34E1DC8-E131-44E1-841D-4351A6EF65E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="108">
   <si>
     <t>type</t>
   </si>
@@ -303,10 +303,49 @@
     <t>French</t>
   </si>
   <si>
-    <t>sn_lf_pretas_2_partcipants_202307</t>
-  </si>
-  <si>
-    <t>(Juillet 2023) 2. Pre-TAS FL Formulaire Participants</t>
+    <t>select_one id_list</t>
+  </si>
+  <si>
+    <t>p_IDMethod</t>
+  </si>
+  <si>
+    <t>How will the individual's unique ID be generated?</t>
+  </si>
+  <si>
+    <t>Comment l'ID unique de l'individu sera-t-il généré?</t>
+  </si>
+  <si>
+    <t>${p_consent} = 'Yes'</t>
+  </si>
+  <si>
+    <t>barcode</t>
+  </si>
+  <si>
+    <t>p_BarcodeID</t>
+  </si>
+  <si>
+    <t>Scan barcode now</t>
+  </si>
+  <si>
+    <t>Scanner le code-barres maintenant</t>
+  </si>
+  <si>
+    <t>${p_IDMethod} = 'Scanner' and ${p_consent} = 'Yes'</t>
+  </si>
+  <si>
+    <t>p_GenerateID</t>
+  </si>
+  <si>
+    <t>${p_IDMethod} = 'ID_generation' and ${p_consent} = 'Yes'</t>
+  </si>
+  <si>
+    <t>concat(${p_cluster_id},'-',substr(random(),3,10))</t>
+  </si>
+  <si>
+    <t>(Juillet 2023) 2. Pre-TAS FL Formulaire Participants V1.3</t>
+  </si>
+  <si>
+    <t>sn_lf_pretas_2_partcipants_202307_v1_3</t>
   </si>
 </sst>
 </file>
@@ -425,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -497,6 +536,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -778,13 +818,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1108,51 +1148,49 @@
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
     </row>
-    <row r="10" spans="1:16" s="10" customFormat="1" ht="47.25">
-      <c r="A10" s="18" t="s">
-        <v>26</v>
+    <row r="10" spans="1:16" s="3" customFormat="1">
+      <c r="A10" s="13" t="s">
+        <v>93</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="25" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="F10" s="25"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="14" t="s">
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="L10" s="13"/>
+      <c r="M10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="3" customFormat="1" ht="31.5">
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+    </row>
+    <row r="11" spans="1:16" s="3" customFormat="1">
       <c r="A11" s="13" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="25" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="13"/>
@@ -1160,83 +1198,177 @@
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
       <c r="K11" s="13" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="L11" s="13"/>
-      <c r="M11" s="14"/>
+      <c r="M11" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
       <c r="P11" s="13"/>
     </row>
-    <row r="12" spans="1:16" s="3" customFormat="1">
+    <row r="12" spans="1:16" s="3" customFormat="1" ht="47.25">
       <c r="A12" s="13" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="25" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
+      <c r="K12" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-    </row>
-    <row r="13" spans="1:16" s="3" customFormat="1">
-      <c r="A13" s="13" t="s">
+      <c r="P12" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="10" customFormat="1" ht="47.25">
+      <c r="A13" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="18"/>
+      <c r="M13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+    </row>
+    <row r="14" spans="1:16" s="3" customFormat="1" ht="31.5">
+      <c r="A14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="25"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="13"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+    </row>
+    <row r="15" spans="1:16" s="3" customFormat="1">
+      <c r="A15" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+    </row>
+    <row r="16" spans="1:16" s="3" customFormat="1">
+      <c r="A16" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B16" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="13" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B17" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1373,13 +1505,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="46.5" customWidth="1"/>
-    <col min="2" max="2" width="34.75" customWidth="1"/>
+    <col min="1" max="1" width="46.5" style="29" customWidth="1"/>
+    <col min="2" max="2" width="34.75" style="29" customWidth="1"/>
+    <col min="3" max="16384" width="11" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1395,17 +1528,17 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>92</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LF/PreTAS/Senegal/2023/jul 2023/sn_lf_pretas_2_partcipants_202307.xlsx
+++ b/LF/PreTAS/Senegal/2023/jul 2023/sn_lf_pretas_2_partcipants_202307.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\PreTAS\Senegal\2023\jul 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34E1DC8-E131-44E1-841D-4351A6EF65E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D647D4-159A-483B-AA08-1D48A151E1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="108">
   <si>
     <t>type</t>
   </si>
@@ -315,9 +315,6 @@
     <t>Comment l'ID unique de l'individu sera-t-il généré?</t>
   </si>
   <si>
-    <t>${p_consent} = 'Yes'</t>
-  </si>
-  <si>
     <t>barcode</t>
   </si>
   <si>
@@ -330,9 +327,6 @@
     <t>Scanner le code-barres maintenant</t>
   </si>
   <si>
-    <t>${p_IDMethod} = 'Scanner' and ${p_consent} = 'Yes'</t>
-  </si>
-  <si>
     <t>p_GenerateID</t>
   </si>
   <si>
@@ -346,13 +340,19 @@
   </si>
   <si>
     <t>sn_lf_pretas_2_partcipants_202307_v1_3</t>
+  </si>
+  <si>
+    <t>${p_IDMethod} = 'Scanner' and ${p_consent} = 'Oui'</t>
+  </si>
+  <si>
+    <t>${p_IDMethod} = 'ID_generation' and ${p_consent} = 'Oui'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -369,37 +369,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="4">
@@ -464,15 +472,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -482,61 +487,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -820,559 +814,560 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10:XFD12"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="19.625" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="42.625" customWidth="1"/>
-    <col min="4" max="4" width="41.25" customWidth="1"/>
-    <col min="5" max="5" width="47.5" customWidth="1"/>
-    <col min="6" max="6" width="47.375" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="16.875" customWidth="1"/>
-    <col min="9" max="10" width="29.5" customWidth="1"/>
-    <col min="11" max="11" width="20.375" customWidth="1"/>
-    <col min="12" max="12" width="39.875" customWidth="1"/>
-    <col min="13" max="13" width="9.75" customWidth="1"/>
-    <col min="14" max="14" width="35.375" customWidth="1"/>
-    <col min="15" max="15" width="13.875" customWidth="1"/>
-    <col min="16" max="16" width="36.625" customWidth="1"/>
+    <col min="1" max="1" width="19.625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="25" customWidth="1"/>
+    <col min="3" max="3" width="42.625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="41.25" style="25" customWidth="1"/>
+    <col min="5" max="5" width="47.5" style="25" customWidth="1"/>
+    <col min="6" max="6" width="47.375" style="25" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="16.875" style="25" customWidth="1"/>
+    <col min="9" max="10" width="29.5" style="25" customWidth="1"/>
+    <col min="11" max="11" width="20.375" style="25" customWidth="1"/>
+    <col min="12" max="12" width="39.875" style="25" customWidth="1"/>
+    <col min="13" max="13" width="9.75" style="25" customWidth="1"/>
+    <col min="14" max="14" width="35.375" style="25" customWidth="1"/>
+    <col min="15" max="15" width="13.875" style="25" customWidth="1"/>
+    <col min="16" max="16" width="36.625" style="25" customWidth="1"/>
+    <col min="17" max="16384" width="11" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="37.5">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:16" s="13" customFormat="1" ht="37.5">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" ht="63">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:16" s="13" customFormat="1" ht="63">
+      <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="24" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="14" t="s">
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="13"/>
-    </row>
-    <row r="3" spans="1:16" s="3" customFormat="1">
-      <c r="A3" s="13" t="s">
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+    </row>
+    <row r="3" spans="1:16" s="13" customFormat="1">
+      <c r="A3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="23" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="14" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="13"/>
-    </row>
-    <row r="4" spans="1:16" s="3" customFormat="1">
-      <c r="A4" s="13" t="s">
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+    </row>
+    <row r="4" spans="1:16" s="13" customFormat="1">
+      <c r="A4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="23" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14" t="s">
+      <c r="F4" s="17"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="16"/>
-    </row>
-    <row r="5" spans="1:16" s="3" customFormat="1">
-      <c r="A5" s="13" t="s">
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="14"/>
+    </row>
+    <row r="5" spans="1:16" s="13" customFormat="1">
+      <c r="A5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="23" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14" t="s">
+      <c r="F5" s="17"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="16"/>
-    </row>
-    <row r="6" spans="1:16" s="3" customFormat="1">
-      <c r="A6" s="13" t="s">
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="14"/>
+    </row>
+    <row r="6" spans="1:16" s="13" customFormat="1">
+      <c r="A6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="23" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14" t="s">
+      <c r="F6" s="17"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-    </row>
-    <row r="7" spans="1:16" s="3" customFormat="1">
-      <c r="A7" s="13" t="s">
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+    </row>
+    <row r="7" spans="1:16" s="13" customFormat="1">
+      <c r="A7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="23" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="14" t="s">
+      <c r="F7" s="17"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14" t="s">
+      <c r="L7" s="15"/>
+      <c r="M7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-    </row>
-    <row r="8" spans="1:16" s="9" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A8" s="16" t="s">
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+    </row>
+    <row r="8" spans="1:16" s="13" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="23" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14" t="s">
+      <c r="F8" s="17"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14" t="s">
+      <c r="L8" s="15"/>
+      <c r="M8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-    </row>
-    <row r="9" spans="1:16" s="3" customFormat="1" ht="31.5">
-      <c r="A9" s="13" t="s">
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+    </row>
+    <row r="9" spans="1:16" s="13" customFormat="1" ht="31.5">
+      <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="23" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16" t="s">
+      <c r="F9" s="17"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="14" t="s">
+      <c r="L9" s="14"/>
+      <c r="M9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-    </row>
-    <row r="10" spans="1:16" s="3" customFormat="1">
-      <c r="A10" s="13" t="s">
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+    </row>
+    <row r="10" spans="1:16" s="13" customFormat="1">
+      <c r="A10" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="25" t="s">
+      <c r="D10" s="16"/>
+      <c r="E10" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13" t="s">
+      <c r="F10" s="17"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="14"/>
+      <c r="M10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+    </row>
+    <row r="11" spans="1:16" s="13" customFormat="1">
+      <c r="A11" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="18" t="s">
+      <c r="B11" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" s="14"/>
+      <c r="M11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-    </row>
-    <row r="11" spans="1:16" s="3" customFormat="1">
-      <c r="A11" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="25" t="s">
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+    </row>
+    <row r="12" spans="1:16" s="13" customFormat="1" ht="47.25">
+      <c r="A12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="18" t="s">
+      <c r="C12" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="M12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-    </row>
-    <row r="12" spans="1:16" s="3" customFormat="1" ht="47.25">
-      <c r="A12" s="13" t="s">
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="21" customFormat="1" ht="47.25">
+      <c r="A13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="19" t="s">
+      <c r="B13" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="25" t="s">
+      <c r="D13" s="16"/>
+      <c r="E13" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="M12" s="18" t="s">
+      <c r="F13" s="17"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="10" customFormat="1" ht="47.25">
-      <c r="A13" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" s="18"/>
-      <c r="M13" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-    </row>
-    <row r="14" spans="1:16" s="3" customFormat="1" ht="31.5">
-      <c r="A14" s="13" t="s">
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+    </row>
+    <row r="14" spans="1:16" s="13" customFormat="1" ht="31.5">
+      <c r="A14" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="25" t="s">
+      <c r="D14" s="16"/>
+      <c r="E14" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13" t="s">
+      <c r="F14" s="17"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-    </row>
-    <row r="15" spans="1:16" s="3" customFormat="1">
-      <c r="A15" s="13" t="s">
+      <c r="L14" s="14"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+    </row>
+    <row r="15" spans="1:16" s="13" customFormat="1">
+      <c r="A15" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="25" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-    </row>
-    <row r="16" spans="1:16" s="3" customFormat="1">
-      <c r="A16" s="13" t="s">
+      <c r="F15" s="17"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+    </row>
+    <row r="16" spans="1:16" s="13" customFormat="1">
+      <c r="A16" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1382,7 +1377,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4:B5"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1394,101 +1389,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1504,15 +1499,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="46.5" style="29" customWidth="1"/>
-    <col min="2" max="2" width="34.75" style="29" customWidth="1"/>
-    <col min="3" max="16384" width="11" style="29"/>
+    <col min="1" max="1" width="46.5" style="9" customWidth="1"/>
+    <col min="2" max="2" width="34.75" style="9" customWidth="1"/>
+    <col min="3" max="16384" width="11" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1527,13 +1522,13 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="29" t="s">
+      <c r="A2" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>92</v>
       </c>
     </row>

--- a/LF/PreTAS/Senegal/2023/jul 2023/sn_lf_pretas_2_partcipants_202307.xlsx
+++ b/LF/PreTAS/Senegal/2023/jul 2023/sn_lf_pretas_2_partcipants_202307.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\PreTAS\Senegal\2023\jul 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D647D4-159A-483B-AA08-1D48A151E1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B175E4CF-D391-49BB-812E-3515C0ED6051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="107">
   <si>
     <t>type</t>
   </si>
@@ -328,9 +328,6 @@
   </si>
   <si>
     <t>p_GenerateID</t>
-  </si>
-  <si>
-    <t>${p_IDMethod} = 'ID_generation' and ${p_consent} = 'Yes'</t>
   </si>
   <si>
     <t>concat(${p_cluster_id},'-',substr(random(),3,10))</t>
@@ -818,7 +815,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1193,7 +1190,7 @@
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L11" s="14"/>
       <c r="M11" s="15" t="s">
@@ -1223,10 +1220,10 @@
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M12" s="15" t="s">
         <v>25</v>
@@ -1523,10 +1520,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>105</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>92</v>
